--- a/biology/Médecine/Golding_Bird/Golding_Bird.xlsx
+++ b/biology/Médecine/Golding_Bird/Golding_Bird.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Golding Bird, né le 9 décembre 1814 à Downham Market et mort le 27 octobre 1854, est un médecin britannique membre du Collège royal de médecine.
 Spécialiste des maladies du rein, il est également connu pour son travail sur les utilisations médicales de l'électricité et de l'électrochimie.
